--- a/rascunhos/iteracoes_aloc_PID.xlsx
+++ b/rascunhos/iteracoes_aloc_PID.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas Paiva\Documents\USP\Trabalhos\Controle\T2\T2_controlao\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas Paiva\Documents\USP\Trabalhos\Controle\T2\T2_controlao\rascunhos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="20">
   <si>
     <t>Kp</t>
   </si>
@@ -60,6 +60,30 @@
   </si>
   <si>
     <t>Iterações Alocação de Polos - PID</t>
+  </si>
+  <si>
+    <t>Iterações Alocação de Polos - PID v2</t>
+  </si>
+  <si>
+    <t>-10+10i</t>
+  </si>
+  <si>
+    <t>-10-10i</t>
+  </si>
+  <si>
+    <t>-15+15i</t>
+  </si>
+  <si>
+    <t>-15-15i</t>
+  </si>
+  <si>
+    <t>Iterações Alocação de Polos - PID v3</t>
+  </si>
+  <si>
+    <t>-7,5+7,5i</t>
+  </si>
+  <si>
+    <t>-7,5-7,5i</t>
   </si>
 </sst>
 </file>
@@ -95,12 +119,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -381,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21:G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -667,9 +694,354 @@
         <v>-23.5</v>
       </c>
     </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1">
+        <v>3.15</v>
+      </c>
+      <c r="C13">
+        <v>4.72</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1.0699999999999999E-6</v>
+      </c>
+      <c r="E13" s="3">
+        <v>3262</v>
+      </c>
+      <c r="F13" s="3">
+        <v>194000</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1.9E-3</v>
+      </c>
+      <c r="H13">
+        <v>-1.5</v>
+      </c>
+      <c r="I13">
+        <v>-3.5</v>
+      </c>
+      <c r="J13">
+        <v>-11.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>4.3</v>
+      </c>
+      <c r="C14" s="1">
+        <v>24.48</v>
+      </c>
+      <c r="D14" s="3">
+        <v>6.9299999999999997E-6</v>
+      </c>
+      <c r="E14">
+        <v>0.13519999999999999</v>
+      </c>
+      <c r="F14">
+        <v>0.41260000000000002</v>
+      </c>
+      <c r="G14">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="H14">
+        <v>-5.5</v>
+      </c>
+      <c r="I14">
+        <v>-7.5</v>
+      </c>
+      <c r="J14">
+        <v>-9.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>7.62</v>
+      </c>
+      <c r="C15">
+        <v>111</v>
+      </c>
+      <c r="D15" s="3">
+        <v>7.08E-5</v>
+      </c>
+      <c r="E15">
+        <v>8.3099999999999993E-2</v>
+      </c>
+      <c r="F15">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="G15">
+        <v>6.2E-2</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J15">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>10.5</v>
+      </c>
+      <c r="C16">
+        <v>232</v>
+      </c>
+      <c r="D16" s="3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="E16">
+        <v>6.0600000000000001E-2</v>
+      </c>
+      <c r="F16">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="G16">
+        <v>0.03</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16">
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>5</v>
+      </c>
+      <c r="B17">
+        <v>11.43</v>
+      </c>
+      <c r="C17">
+        <v>223.53</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1E-4</v>
+      </c>
+      <c r="E17">
+        <v>5.8500000000000003E-2</v>
+      </c>
+      <c r="F17">
+        <v>0.16619999999999999</v>
+      </c>
+      <c r="G17">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="H17">
+        <v>-15</v>
+      </c>
+      <c r="I17">
+        <v>-20</v>
+      </c>
+      <c r="J17">
+        <v>-25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" t="s">
+        <v>6</v>
+      </c>
+      <c r="I20" t="s">
+        <v>7</v>
+      </c>
+      <c r="J20" t="s">
+        <v>8</v>
+      </c>
+      <c r="K20" t="s">
+        <v>9</v>
+      </c>
+      <c r="L20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" s="1">
+        <v>33.6</v>
+      </c>
+      <c r="C21">
+        <v>144</v>
+      </c>
+      <c r="D21" s="5">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3">
+        <v>2.9399999999999999E-2</v>
+      </c>
+      <c r="F21" s="3">
+        <v>1.3899999999999999E-2</v>
+      </c>
+      <c r="G21" s="3">
+        <v>2E-3</v>
+      </c>
+      <c r="H21">
+        <v>-5.5</v>
+      </c>
+      <c r="I21">
+        <v>-7.5</v>
+      </c>
+      <c r="J21">
+        <v>-9.5</v>
+      </c>
+      <c r="K21">
+        <v>-11.5</v>
+      </c>
+      <c r="L21">
+        <v>-13.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22">
+        <v>47.2</v>
+      </c>
+      <c r="C22" s="1">
+        <v>274</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>2.2200000000000001E-2</v>
+      </c>
+      <c r="F22">
+        <v>9.9000000000000008E-3</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J22">
+        <v>-9.5</v>
+      </c>
+      <c r="K22">
+        <v>-11.5</v>
+      </c>
+      <c r="L22">
+        <v>-13.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D23" s="3"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D24" s="3"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D25" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="B1:L1"/>
+    <mergeCell ref="B11:L11"/>
+    <mergeCell ref="B19:L19"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
